--- a/win.xlsx
+++ b/win.xlsx
@@ -353,46 +353,6 @@
         <v>count</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>question1_574</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>question1_44</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>question1_383</v>
-      </c>
-      <c r="B4" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>question1_368</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>question1_213</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/win.xlsx
+++ b/win.xlsx
@@ -342,15 +342,183 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="1" style="0" width="18"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
+        <v>tableName</v>
+      </c>
+      <c r="B1" s="1" t="str">
         <v>questionID</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="C1" s="1" t="str">
         <v>count</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>84</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>761</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>735</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>706</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B6" t="str">
+        <v>680</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B7" t="str">
+        <v>669</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>662</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>561</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>519</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>361</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>282</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>235</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>227</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>question1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>129</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
